--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Cofee_Tea Shops" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AP$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -62,7 +63,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 comments</t>
         </r>
       </text>
@@ -77,7 +78,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 sku или сцена??</t>
         </r>
       </text>
@@ -92,7 +93,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 sku или сцена??</t>
         </r>
       </text>
@@ -107,7 +108,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 sku или сцена??</t>
         </r>
       </text>
@@ -117,596 +118,593 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="191">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>sub locations to include</t>
-  </si>
-  <si>
-    <t>sub locations to exclude</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>Target Execution 2018</t>
-  </si>
-  <si>
-    <t>RD38010007</t>
-  </si>
-  <si>
-    <t>HoReCa (Cofee /Tea Shops)</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="190">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Execution 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoReCa (Cofee /Tea Shops)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5</t>
   </si>
   <si>
-    <t>Coca-Cola - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Sprite - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>7
+    <t xml:space="preserve">Coca-Cola - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
 8
 9</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.33L Glass</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.75L Glass</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.75л стекло</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>11
+    <t xml:space="preserve">BonAqua Still - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.33L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.75L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.75л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11
 12
 13</t>
   </si>
   <si>
-    <t>Rich - Orange - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 0.2L Glass</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 0.2л стекло</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>LOCAL 3</t>
-  </si>
-  <si>
-    <t>Spirits Availability</t>
-  </si>
-  <si>
-    <t>Представленность Алкоголя</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>15
+    <t xml:space="preserve">Rich - Orange - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 0.2L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 0.2л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Алкоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15
 16
 17</t>
   </si>
   <si>
-    <t>Red Hackle - 0.7L</t>
-  </si>
-  <si>
-    <t>Рэд Хакл - 0.7л</t>
-  </si>
-  <si>
-    <t>Wild Turkey 81 - 0.7L</t>
-  </si>
-  <si>
-    <t>Уайлд Тёки 81 - 0.7л</t>
-  </si>
-  <si>
-    <t>New Alco Brand</t>
-  </si>
-  <si>
-    <t>not defined</t>
-  </si>
-  <si>
-    <t>STANDARD 16</t>
-  </si>
-  <si>
-    <t>Menu Activation</t>
-  </si>
-  <si>
-    <t>Активация Меню</t>
-  </si>
-  <si>
-    <t>Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle</t>
-  </si>
-  <si>
-    <t>5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004</t>
-  </si>
-  <si>
-    <t>Activation</t>
-  </si>
-  <si>
-    <t>Other Menu Activation, Menu, Menu Insert</t>
-  </si>
-  <si>
-    <t>STANDARD 17</t>
-  </si>
-  <si>
-    <t>Impulse Activation</t>
-  </si>
-  <si>
-    <t>Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>Bar Activation</t>
-  </si>
-  <si>
-    <t>20
+    <t xml:space="preserve">Red Hackle - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рэд Хакл - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Alco Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Меню</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Menu Activation, Menu, Menu Insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
 21
 22</t>
   </si>
   <si>
-    <t>Impulse: SSD/Water/Juice NRGB</t>
-  </si>
-  <si>
-    <t>Импульс: SSD/Water/Juice Стекло</t>
-  </si>
-  <si>
-    <t>Manufacture: TCCC</t>
-  </si>
-  <si>
-    <t>SSD, Water, Juices</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>Impulse: Burn CAN</t>
-  </si>
-  <si>
-    <t>Импульс: Burn Банка</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>CAN, can</t>
-  </si>
-  <si>
-    <t>Impulse: Alcohol</t>
-  </si>
-  <si>
-    <t>Импульс: Замиксуй (Дисплей Алкоголя)</t>
-  </si>
-  <si>
-    <t>number of SKUs</t>
-  </si>
-  <si>
-    <t>Manufacture: TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>Spirits</t>
-  </si>
-  <si>
-    <t>TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>Destination Activation</t>
-  </si>
-  <si>
-    <t>Активация Стола</t>
-  </si>
-  <si>
-    <t>Table Activation</t>
-  </si>
-  <si>
-    <t>24
+    <t xml:space="preserve">Impulse: SSD/Water/Juice NRGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс: SSD/Water/Juice Стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD, Water, Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse: Burn CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс: Burn Банка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN, can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse: Alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс: Замиксуй (Дисплей Алкоголя)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacture: TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Стола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24
 25</t>
   </si>
   <si>
-    <t>Destination: Images</t>
-  </si>
-  <si>
-    <t>Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t>IC Activation</t>
-  </si>
-  <si>
-    <t>Destination: Coca-Cola/Bon Aqua NRGB</t>
-  </si>
-  <si>
-    <t>Активация Стола: Coca-Cola/Bon Aqua NRGB</t>
-  </si>
-  <si>
-    <t>Coca-Cola, Bonaqua</t>
-  </si>
-  <si>
-    <t>OCCASIONS</t>
-  </si>
-  <si>
-    <t>Drink Out: Morning coffee</t>
-  </si>
-  <si>
-    <t>Повод: Завтрак/утренний кофе</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
-  </si>
-  <si>
-    <t>27
+    <t xml:space="preserve">Destination: Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination: Coca-Cola/Bon Aqua NRGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Стола: Coca-Cola/Bon Aqua NRGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola, Bonaqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCCASIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Out: Morning coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повод: Завтрак/утренний кофе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu, Menu Insert, Other Menu Activation, Table Activation, Bar Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27
 28</t>
   </si>
   <si>
-    <t>Morning coffee: BonAqua NRGB Image</t>
-  </si>
-  <si>
-    <t>Завтрак/утренний кофе: Бонаква Стекло Имидж</t>
-  </si>
-  <si>
-    <t>Sub Category: Glass</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Bonaqua</t>
-  </si>
-  <si>
-    <t>SUB_CATEGORY</t>
-  </si>
-  <si>
-    <t>Morning coffee: BonAqua NRGB Product</t>
-  </si>
-  <si>
-    <t>Завтрак/утренний кофе: Бонаква Стекло Продукт</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Drink Out: Midday socializing</t>
-  </si>
-  <si>
-    <t>Повод: Relax после работы</t>
-  </si>
-  <si>
-    <t>30
+    <t xml:space="preserve">Morning coffee: BonAqua NRGB Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завтрак/утренний кофе: Бонаква Стекло Имидж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category: Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonaqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morning coffee: BonAqua NRGB Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завтрак/утренний кофе: Бонаква Стекло Продукт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Out: Midday socializing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повод: Relax после работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30
 31</t>
   </si>
   <si>
-    <t>Midday socializing: Mixability</t>
-  </si>
-  <si>
-    <t>Relax после работы: Миксабилити</t>
-  </si>
-  <si>
-    <t>RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry</t>
-  </si>
-  <si>
-    <t>A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002</t>
-  </si>
-  <si>
-    <t>Midday socializing: Moctails</t>
-  </si>
-  <si>
-    <t>Relax после работы: Моктели</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Eat Out: Informal lunch</t>
-  </si>
-  <si>
-    <t>Повод: Ужин</t>
-  </si>
-  <si>
-    <t>Rich</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Visible Cooler</t>
-  </si>
-  <si>
-    <t>Видимый ХО</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>34
+    <t xml:space="preserve">Midday socializing: Mixability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax после работы: Миксабилити</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midday socializing: Moctails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax после работы: Моктели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eat Out: Informal lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повод: Ужин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visible Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Видимый ХО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34
 35
 36
 37</t>
   </si>
   <si>
-    <t>Cooler is Visible</t>
-  </si>
-  <si>
-    <t>ХО виден</t>
-  </si>
-  <si>
-    <t>Scenes with no tagging</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t>Cooler fullness</t>
-  </si>
-  <si>
-    <t>ХО Заполнен</t>
-  </si>
-  <si>
-    <t>number of filled Coolers (scenes)</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t>Cooler wo other products</t>
-  </si>
-  <si>
-    <t>ХО без посторонней продукции</t>
-  </si>
-  <si>
-    <t>number of pure Coolers</t>
-  </si>
-  <si>
-    <t>Share of TCCC product at least 98%</t>
-  </si>
-  <si>
-    <t>Cooler: Max 14</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 12 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">Cooler is Visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО виден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes with no tagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler fullness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО Заполнен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of filled Coolers (scenes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler wo other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХО без посторонней продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of pure Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of TCCC product at least 98%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 12 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -714,7 +712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -1374,9 +1372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1949400</xdr:colOff>
+      <xdr:colOff>1949040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,7 +1384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14339520" cy="8909280"/>
+          <a:ext cx="14691600" cy="8908920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,9 +1417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1949400</xdr:colOff>
+      <xdr:colOff>1949040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14339520" cy="8909280"/>
+          <a:ext cx="14691600" cy="8908920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,9 +1462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1949400</xdr:colOff>
+      <xdr:colOff>1949040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1476,7 +1474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14339520" cy="8909280"/>
+          <a:ext cx="14691600" cy="8908920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1949400</xdr:colOff>
+      <xdr:colOff>1949040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1521,7 +1519,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14339520" cy="8909280"/>
+          <a:ext cx="14691600" cy="8908920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,48 +1555,48 @@
   <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="73.0976744186047"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="40.4883720930233"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="28.9209302325581"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="1" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="20.7953488372093"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="62.3906976744186"/>
-    <col collapsed="false" hidden="false" max="37" min="35" style="4" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="28.9209302325581"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="75.3162790697674"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="38.1488372093023"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="41.7162790697674"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="1" width="23.0139534883721"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="29.6558139534884"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="27" min="25" style="1" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="35.4418604651163"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="4" width="64.2372093023256"/>
+    <col collapsed="false" hidden="false" max="37" min="35" style="4" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="29.6558139534884"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,7 +3859,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="34" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
@@ -3872,7 +3870,7 @@
         <v>100</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
@@ -3899,7 +3897,7 @@
         <v>26</v>
       </c>
       <c r="AM27" s="73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN27" s="36"/>
       <c r="AO27" s="36"/>
@@ -3924,10 +3922,10 @@
         <v>136</v>
       </c>
       <c r="F28" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>52</v>
@@ -3938,23 +3936,23 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="N28" s="34" t="s">
         <v>132</v>
       </c>
       <c r="O28" s="34"/>
       <c r="P28" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
@@ -3964,7 +3962,7 @@
         <v>100</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
@@ -4014,10 +4012,10 @@
         <v>136</v>
       </c>
       <c r="F29" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>52</v>
@@ -4030,11 +4028,11 @@
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O29" s="34"/>
       <c r="P29" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="34" t="s">
         <v>53</v>
@@ -4102,10 +4100,10 @@
         <v>136</v>
       </c>
       <c r="F30" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>152</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>105</v>
@@ -4132,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y30" s="34"/>
       <c r="Z30" s="34"/>
@@ -4159,7 +4157,7 @@
         <v>29</v>
       </c>
       <c r="AM30" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AN30" s="36"/>
       <c r="AO30" s="36"/>
@@ -4184,10 +4182,10 @@
         <v>136</v>
       </c>
       <c r="F31" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>52</v>
@@ -4198,10 +4196,10 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="78" t="s">
         <v>156</v>
-      </c>
-      <c r="M31" s="78" t="s">
-        <v>157</v>
       </c>
       <c r="N31" s="34"/>
       <c r="O31" s="34" t="s">
@@ -4222,7 +4220,7 @@
         <v>100</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
@@ -4250,7 +4248,7 @@
       </c>
       <c r="AM31" s="36"/>
       <c r="AN31" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO31" s="36"/>
       <c r="AP31" s="28"/>
@@ -4272,10 +4270,10 @@
         <v>136</v>
       </c>
       <c r="F32" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>52</v>
@@ -4286,10 +4284,10 @@
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
       <c r="L32" s="77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M32" s="77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N32" s="34"/>
       <c r="O32" s="34" t="s">
@@ -4310,7 +4308,7 @@
         <v>100</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y32" s="34"/>
       <c r="Z32" s="34"/>
@@ -4338,7 +4336,7 @@
       </c>
       <c r="AM32" s="36"/>
       <c r="AN32" s="69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO32" s="36"/>
       <c r="AP32" s="28"/>
@@ -4360,10 +4358,10 @@
         <v>136</v>
       </c>
       <c r="F33" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="44" t="s">
         <v>161</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>162</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>52</v>
@@ -4374,23 +4372,23 @@
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
       <c r="L33" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="M33" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="N33" s="34" t="s">
         <v>132</v>
       </c>
       <c r="O33" s="34"/>
       <c r="P33" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q33" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
@@ -4400,7 +4398,7 @@
         <v>100</v>
       </c>
       <c r="X33" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y33" s="34"/>
       <c r="Z33" s="34"/>
@@ -4447,13 +4445,13 @@
         <v>83</v>
       </c>
       <c r="E34" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="G34" s="69" t="s">
         <v>165</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>166</v>
       </c>
       <c r="H34" s="75" t="s">
         <v>105</v>
@@ -4475,7 +4473,7 @@
       <c r="U34" s="34"/>
       <c r="V34" s="34"/>
       <c r="W34" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X34" s="34"/>
       <c r="Y34" s="34"/>
@@ -4503,7 +4501,7 @@
         <v>33</v>
       </c>
       <c r="AM34" s="73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN34" s="0"/>
       <c r="AO34" s="36"/>
@@ -4523,16 +4521,16 @@
         <v>83</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F35" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="74" t="s">
+      <c r="H35" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I35" s="80" t="n">
         <v>1</v>
@@ -4548,7 +4546,7 @@
         <v>53</v>
       </c>
       <c r="R35" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S35" s="34"/>
       <c r="T35" s="34"/>
@@ -4558,7 +4556,7 @@
         <v>55</v>
       </c>
       <c r="X35" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y35" s="34"/>
       <c r="Z35" s="34"/>
@@ -4586,7 +4584,7 @@
       </c>
       <c r="AM35" s="36"/>
       <c r="AN35" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO35" s="36"/>
       <c r="AP35" s="28"/>
@@ -4605,16 +4603,16 @@
         <v>83</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="G36" s="74" t="s">
+      <c r="H36" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="I36" s="35" t="n">
         <v>1</v>
@@ -4625,7 +4623,7 @@
         <v>110</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
@@ -4634,14 +4632,14 @@
         <v>53</v>
       </c>
       <c r="R36" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S36" s="34"/>
       <c r="T36" s="34"/>
       <c r="U36" s="34"/>
       <c r="V36" s="34"/>
       <c r="W36" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
@@ -4660,7 +4658,7 @@
       <c r="AF36" s="34"/>
       <c r="AG36" s="34"/>
       <c r="AH36" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI36" s="35"/>
       <c r="AJ36" s="35"/>
@@ -4672,7 +4670,7 @@
       </c>
       <c r="AM36" s="36"/>
       <c r="AN36" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO36" s="36"/>
       <c r="AP36" s="28"/>
@@ -4691,16 +4689,16 @@
         <v>83</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="74" t="s">
+      <c r="H37" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="I37" s="35" t="n">
         <v>1</v>
@@ -4711,7 +4709,7 @@
         <v>110</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
@@ -4720,14 +4718,14 @@
         <v>53</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S37" s="34"/>
       <c r="T37" s="34"/>
       <c r="U37" s="34"/>
       <c r="V37" s="34"/>
       <c r="W37" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X37" s="34"/>
       <c r="Y37" s="34"/>
@@ -4746,7 +4744,7 @@
       <c r="AF37" s="34"/>
       <c r="AG37" s="34"/>
       <c r="AH37" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI37" s="35"/>
       <c r="AJ37" s="35"/>
@@ -4758,7 +4756,7 @@
       </c>
       <c r="AM37" s="36"/>
       <c r="AN37" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO37" s="36"/>
       <c r="AP37" s="28"/>
@@ -4778,13 +4776,13 @@
       </c>
       <c r="E38" s="58"/>
       <c r="F38" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="H38" s="83" t="s">
         <v>185</v>
-      </c>
-      <c r="H38" s="83" t="s">
-        <v>186</v>
       </c>
       <c r="I38" s="80"/>
       <c r="J38" s="80" t="n">
@@ -4797,7 +4795,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N38" s="65"/>
       <c r="O38" s="65"/>
@@ -4813,7 +4811,7 @@
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -4842,7 +4840,7 @@
       </c>
       <c r="AM38" s="36"/>
       <c r="AN38" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AO38" s="36"/>
       <c r="AP38" s="28"/>
@@ -4874,7 +4872,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.1813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,10 +4895,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="86" t="s">
         <v>187</v>
-      </c>
-      <c r="H1" s="86" t="s">
-        <v>188</v>
       </c>
       <c r="I1" s="86" t="s">
         <v>32</v>
@@ -4909,7 +4907,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L1" s="86" t="s">
         <v>33</v>
@@ -4920,7 +4918,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Cofee_Tea Shops" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -430,10 +431,10 @@
     <t xml:space="preserve">Активация Меню</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004</t>
+    <t xml:space="preserve">Coca Cola Can, Coca Cola Zero Can 0.33, Coca Cola Zero Bottle, Coca Cola Zero Bottle NRGB, Coca Cola Glass, Coca Cola Cup, Coca Cola Bottle NRGB, Coca Cola Bottle, Cc Graphic, Cc Glass Graphic, Cc Glass And Bottle, CC Hands, Cc Bottle Graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5050570, 50111114, 50111112, 50111111, 5000006, 5000101, 5000005, 5000004, 68943577005, 68943577006, 68943577007, 68943577008, 68943577009</t>
   </si>
   <si>
     <t xml:space="preserve">Activation</t>
@@ -1532,9 +1533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948680</xdr:colOff>
+      <xdr:colOff>1948320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1544,7 +1545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21072960" cy="8598960"/>
+          <a:ext cx="21643920" cy="8598600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,9 +1578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948680</xdr:colOff>
+      <xdr:colOff>1948320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1589,7 +1590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21072960" cy="8598960"/>
+          <a:ext cx="21643920" cy="8598600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1622,9 +1623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948680</xdr:colOff>
+      <xdr:colOff>1948320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1634,7 +1635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21072960" cy="8598960"/>
+          <a:ext cx="21643920" cy="8598600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,9 +1668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948680</xdr:colOff>
+      <xdr:colOff>1948320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1679,7 +1680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21072960" cy="8598960"/>
+          <a:ext cx="21643920" cy="8598600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,49 +1716,49 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="39:45"/>
+      <selection pane="bottomLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.6511627906977"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="77.6511627906977"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.2558139534884"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="42.9488372093023"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="30.5209302325581"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="3" width="21.7813953488372"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="17.6"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="66.2093023255814"/>
-    <col collapsed="false" hidden="false" max="39" min="37" style="4" width="17.6"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="30.5209302325581"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="17.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.9906976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="79.9906976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.3627906976744"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="40.2418604651163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.3023255813954"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="21" min="19" style="1" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.3813953488372"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="3" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="68.1767441860465"/>
+    <col collapsed="false" hidden="false" max="39" min="37" style="4" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="31.3813953488372"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="40.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,6 +3713,7 @@
       <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="77" t="n">
         <v>2</v>
       </c>
@@ -4765,6 +4767,7 @@
       <c r="I35" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="J35" s="0"/>
       <c r="K35" s="82" t="n">
         <v>1</v>
       </c>
@@ -4848,6 +4851,7 @@
       <c r="I36" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="J36" s="0"/>
       <c r="K36" s="37" t="n">
         <v>1</v>
       </c>
@@ -5633,12 +5637,12 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="39:45 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -797,7 +798,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -821,10 +822,8 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -844,40 +843,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -888,17 +854,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -917,7 +882,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,48 +893,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0066"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1036,416 +959,164 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="8" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1467,7 +1138,7 @@
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -1475,7 +1146,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1484,7 +1155,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1504,7 +1175,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1533,9 +1204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948320</xdr:colOff>
+      <xdr:colOff>1236240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1545,7 +1216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21643920" cy="8598600"/>
+          <a:ext cx="14438520" cy="8254080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,9 +1249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948320</xdr:colOff>
+      <xdr:colOff>1236240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1590,7 +1261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21643920" cy="8598600"/>
+          <a:ext cx="14438520" cy="8254080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,9 +1294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948320</xdr:colOff>
+      <xdr:colOff>1236240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1635,7 +1306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21643920" cy="8598600"/>
+          <a:ext cx="14438520" cy="8254080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,9 +1339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1948320</xdr:colOff>
+      <xdr:colOff>1236240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1680,7 +1351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="21643920" cy="8598600"/>
+          <a:ext cx="14438520" cy="8254080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1716,3904 +1387,3862 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.9906976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="79.9906976744186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="40.3627906976744"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.3023255813954"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="1" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="31.3813953488372"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="3" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="4" width="68.1767441860465"/>
-    <col collapsed="false" hidden="false" max="39" min="37" style="4" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="31.3813953488372"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.9720930232558"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="40.3302325581395"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="15.9720930232558"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.9720930232558"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="15.9720930232558"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AM1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AO1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AP1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+    <row r="2" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="22" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="26" t="n">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN2" s="27" t="n">
+      <c r="AN2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AO2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="30"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+    <row r="3" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="n">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="31" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="33" t="n">
+      <c r="O3" s="19" t="n">
         <v>50112128</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="22" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22" t="s">
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AF3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="35" t="n">
+      <c r="AG3" s="20" t="n">
         <v>0.059994</v>
       </c>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="26" t="n">
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN3" s="27" t="n">
+      <c r="AN3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="39" t="s">
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="30"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+    <row r="4" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22" t="n">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="31" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="33" t="n">
+      <c r="O4" s="19" t="n">
         <v>90375408</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="22" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22" t="s">
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AF4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="35" t="n">
+      <c r="AG4" s="20" t="n">
         <v>0.059994</v>
       </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="26" t="n">
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN4" s="27" t="n">
+      <c r="AN4" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="39" t="s">
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="30"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+    <row r="5" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="n">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="40" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="41" t="n">
+      <c r="O5" s="19" t="n">
         <v>54490970</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="22" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22" t="s">
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22" t="s">
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AF5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG5" s="35" t="n">
+      <c r="AG5" s="20" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="26" t="n">
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN5" s="27" t="n">
+      <c r="AN5" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="39" t="s">
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="30"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+    <row r="6" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22" t="n">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="44" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="45" t="n">
+      <c r="O6" s="12" t="n">
         <v>40822341</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="22" t="s">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22" t="s">
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22" t="s">
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22" t="s">
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="22" t="s">
+      <c r="AF6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" s="35" t="n">
+      <c r="AG6" s="20" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="26" t="n">
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN6" s="27" t="n">
+      <c r="AN6" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="39" t="s">
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="30"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+    <row r="7" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="39" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="46" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="46" t="s">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF7" s="46" t="s">
+      <c r="AF7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="26" t="n">
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN7" s="27" t="n">
+      <c r="AN7" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="AO7" s="28" t="s">
+      <c r="AO7" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="12"/>
-      <c r="AR7" s="30"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+    <row r="8" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="50" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22" t="n">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="51" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="45" t="n">
+      <c r="O8" s="12" t="n">
         <v>90418822</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="22" t="s">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22" t="s">
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22" t="s">
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="22" t="s">
+      <c r="AF8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="35" t="n">
+      <c r="AG8" s="20" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="26" t="n">
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN8" s="27" t="n">
+      <c r="AN8" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="39" t="s">
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="30"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+    <row r="9" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="50" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22" t="n">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="44" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="45" t="n">
+      <c r="O9" s="12" t="n">
         <v>90382741</v>
       </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="22" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22" t="s">
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22" t="s">
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22" t="s">
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF9" s="22" t="s">
+      <c r="AF9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG9" s="35" t="n">
+      <c r="AG9" s="20" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="26" t="n">
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN9" s="27" t="n">
+      <c r="AN9" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="39" t="s">
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="30"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+    <row r="10" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="50" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22" t="n">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="51" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="45" t="n">
+      <c r="O10" s="12" t="n">
         <v>5449000196972</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="22" t="s">
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="T10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22" t="s">
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22" t="s">
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22" t="s">
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF10" s="22" t="s">
+      <c r="AF10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG10" s="35" t="n">
+      <c r="AG10" s="20" t="n">
         <v>0.019998</v>
       </c>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="26" t="n">
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN10" s="27" t="n">
+      <c r="AN10" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="39" t="s">
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="30"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+    <row r="11" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="39" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="46" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="46" t="s">
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF11" s="46" t="s">
+      <c r="AF11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="26" t="n">
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN11" s="27" t="n">
+      <c r="AN11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AO11" s="28" t="s">
+      <c r="AO11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="30"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
+    <row r="12" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="55" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22" t="n">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="56" t="s">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="45" t="n">
+      <c r="O12" s="12" t="n">
         <v>4650075420362</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="22" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="T12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22" t="s">
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="22" t="s">
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF12" s="22" t="s">
+      <c r="AF12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG12" s="35" t="n">
+      <c r="AG12" s="20" t="n">
         <v>0.039996</v>
       </c>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="58" t="n">
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN12" s="27" t="n">
+      <c r="AN12" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="39" t="s">
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="30"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+    <row r="13" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="55" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22" t="n">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="45" t="n">
+      <c r="O13" s="12" t="n">
         <v>4650075420386</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="22" t="s">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22" t="s">
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22" t="s">
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="22" t="s">
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF13" s="22" t="s">
+      <c r="AF13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG13" s="35" t="n">
+      <c r="AG13" s="20" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="58" t="n">
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN13" s="27" t="n">
+      <c r="AN13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="39" t="s">
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="30"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="16"/>
     </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+    <row r="14" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="55" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22" t="n">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="56" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="45" t="n">
+      <c r="O14" s="12" t="n">
         <v>4650075420409</v>
       </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="22" t="s">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="T14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22" t="s">
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22" t="s">
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="22" t="s">
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF14" s="22" t="s">
+      <c r="AF14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG14" s="35" t="n">
+      <c r="AG14" s="20" t="n">
         <v>0.030006</v>
       </c>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="58" t="n">
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN14" s="27" t="n">
+      <c r="AN14" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="39" t="s">
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="30"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+    <row r="15" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="55" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="36" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="36" t="s">
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF15" s="36" t="s">
+      <c r="AF15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="38" t="n">
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN15" s="27" t="n">
+      <c r="AN15" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="AO15" s="28" t="s">
+      <c r="AO15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="30"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="16"/>
     </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+    <row r="16" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37" t="n">
+      <c r="J16" s="11"/>
+      <c r="K16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="65" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="66" t="n">
+      <c r="O16" s="24" t="n">
         <v>509987300136059</v>
       </c>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="36" t="s">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36" t="s">
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-      <c r="AA16" s="36" t="s">
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="36" t="s">
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF16" s="36" t="s">
+      <c r="AF16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG16" s="69" t="n">
+      <c r="AG16" s="25" t="n">
         <v>0.02</v>
       </c>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="70" t="n">
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN16" s="27" t="n">
+      <c r="AN16" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="55" t="s">
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="30"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+    <row r="17" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37" t="n">
+      <c r="J17" s="11"/>
+      <c r="K17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="65" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="66" t="n">
+      <c r="O17" s="24" t="n">
         <v>4607174573314</v>
       </c>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="36" t="s">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="36" t="s">
+      <c r="T17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36" t="s">
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36" t="s">
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="36" t="s">
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF17" s="36" t="s">
+      <c r="AF17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG17" s="69" t="n">
+      <c r="AG17" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="70" t="n">
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN17" s="27" t="n">
+      <c r="AN17" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="55" t="s">
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="30"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+    <row r="18" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37" t="n">
+      <c r="J18" s="11"/>
+      <c r="K18" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="65" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="66" t="n">
+      <c r="O18" s="24" t="n">
         <v>4607174573338</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="36" t="s">
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="36" t="s">
+      <c r="T18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36" t="s">
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36" t="s">
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="36" t="s">
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF18" s="36" t="s">
+      <c r="AF18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG18" s="69" t="n">
+      <c r="AG18" s="25" t="n">
         <v>0.01</v>
       </c>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="70" t="n">
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN18" s="27" t="n">
+      <c r="AN18" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="55" t="s">
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="30"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+    <row r="19" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="71" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37" t="n">
+      <c r="J19" s="11"/>
+      <c r="K19" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36" t="s">
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="36" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="36" t="s">
+      <c r="T19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="36" t="s">
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z19" s="36" t="s">
+      <c r="Z19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="36" t="s">
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF19" s="36" t="s">
+      <c r="AF19" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG19" s="69" t="n">
+      <c r="AG19" s="25" t="n">
         <v>0.15</v>
       </c>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="70" t="n">
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70" t="n">
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN19" s="27" t="n">
+      <c r="AN19" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="30" t="s">
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="13"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+    <row r="20" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="71" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36" t="n">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="36" t="s">
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z20" s="36" t="s">
+      <c r="Z20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="36" t="s">
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF20" s="36" t="s">
+      <c r="AF20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG20" s="74" t="n">
+      <c r="AG20" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="70" t="n">
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="13"/>
+      <c r="AM20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN20" s="27" t="n">
+      <c r="AN20" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="AO20" s="75" t="s">
+      <c r="AO20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="30" t="s">
+      <c r="AP20" s="13"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+    <row r="21" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="71" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37" t="n">
+      <c r="J21" s="11"/>
+      <c r="K21" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="36" t="s">
+      <c r="P21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36" t="s">
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="U21" s="36"/>
-      <c r="V21" s="77" t="s">
+      <c r="U21" s="11"/>
+      <c r="V21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36" t="s">
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z21" s="36" t="s">
+      <c r="Z21" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="36" t="s">
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF21" s="36" t="s">
+      <c r="AF21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG21" s="74" t="n">
+      <c r="AG21" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="70" t="n">
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN21" s="27" t="n">
+      <c r="AN21" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="71" t="s">
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="30"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="16"/>
     </row>
-    <row r="22" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+    <row r="22" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="71" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37" t="n">
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36" t="s">
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="36" t="s">
+      <c r="S22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T22" s="36" t="s">
+      <c r="T22" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="U22" s="36"/>
-      <c r="V22" s="77" t="s">
+      <c r="U22" s="11"/>
+      <c r="V22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36" t="s">
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z22" s="36" t="s">
+      <c r="Z22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="36" t="s">
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF22" s="36" t="s">
+      <c r="AF22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG22" s="74" t="n">
+      <c r="AG22" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="70" t="n">
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN22" s="27" t="n">
+      <c r="AN22" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="71" t="s">
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="30"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+    <row r="23" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="71" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="27" t="s">
         <v>122</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J23" s="0"/>
-      <c r="K23" s="77" t="n">
+      <c r="K23" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O23" s="36" t="s">
+      <c r="O23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="36" t="s">
+      <c r="P23" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q23" s="36" t="s">
+      <c r="Q23" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36" t="s">
+      <c r="R23" s="11"/>
+      <c r="S23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36" t="s">
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z23" s="36" t="s">
+      <c r="Z23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="36" t="s">
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF23" s="36" t="s">
+      <c r="AF23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG23" s="74" t="n">
+      <c r="AG23" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="70" t="n">
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN23" s="27" t="n">
+      <c r="AN23" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="71" t="s">
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="30"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="16"/>
     </row>
-    <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+    <row r="24" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="71" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37" t="n">
+      <c r="J24" s="11"/>
+      <c r="K24" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36" t="s">
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="36" t="s">
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z24" s="36" t="s">
+      <c r="Z24" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="36" t="s">
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF24" s="36" t="s">
+      <c r="AF24" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG24" s="74" t="n">
+      <c r="AG24" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
-      <c r="AM24" s="70" t="n">
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN24" s="27" t="n">
+      <c r="AN24" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="AO24" s="75" t="s">
+      <c r="AO24" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="30" t="s">
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="n">
+    <row r="25" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="71" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="76" t="s">
+      <c r="H25" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="I25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37" t="n">
+      <c r="J25" s="11"/>
+      <c r="K25" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36" t="s">
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="36" t="s">
+      <c r="P25" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36" t="s">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="36" t="s">
+      <c r="T25" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="36" t="s">
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z25" s="36" t="s">
+      <c r="Z25" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="36" t="s">
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF25" s="36" t="s">
+      <c r="AF25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG25" s="74" t="n">
+      <c r="AG25" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="70" t="n">
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN25" s="27" t="n">
+      <c r="AN25" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="AO25" s="38"/>
-      <c r="AP25" s="71" t="s">
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="30"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="16"/>
     </row>
-    <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="n">
+    <row r="26" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="71" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37" t="n">
+      <c r="J26" s="11"/>
+      <c r="K26" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36" t="s">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36" t="s">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="S26" s="36" t="s">
+      <c r="S26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="36" t="s">
+      <c r="T26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="U26" s="36"/>
-      <c r="V26" s="77" t="s">
+      <c r="U26" s="11"/>
+      <c r="V26" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W26" s="36"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="36" t="s">
+      <c r="W26" s="11"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z26" s="36" t="s">
+      <c r="Z26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="36" t="s">
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF26" s="36" t="s">
+      <c r="AF26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG26" s="74" t="n">
+      <c r="AG26" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
-      <c r="AM26" s="70" t="n">
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN26" s="27" t="n">
+      <c r="AN26" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="AO26" s="38"/>
-      <c r="AP26" s="71" t="s">
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="30"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="16"/>
     </row>
-    <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+    <row r="27" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="71" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37" t="n">
+      <c r="J27" s="11"/>
+      <c r="K27" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36" t="s">
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="36" t="s">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z27" s="36" t="s">
+      <c r="Z27" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="68"/>
-      <c r="AE27" s="36" t="s">
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF27" s="36" t="s">
+      <c r="AF27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG27" s="74" t="n">
+      <c r="AG27" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="70" t="n">
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN27" s="27" t="n">
+      <c r="AN27" s="13" t="n">
         <v>26</v>
       </c>
-      <c r="AO27" s="75" t="s">
+      <c r="AO27" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="30" t="s">
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+    <row r="28" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="71" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="37" t="n">
+      <c r="J28" s="11"/>
+      <c r="K28" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="79" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="O28" s="36" t="s">
+      <c r="O28" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36" t="s">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="36" t="s">
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z28" s="36" t="s">
+      <c r="Z28" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="36" t="s">
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF28" s="36" t="s">
+      <c r="AF28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG28" s="74" t="n">
+      <c r="AG28" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="70" t="n">
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN28" s="27" t="n">
+      <c r="AN28" s="13" t="n">
         <v>27</v>
       </c>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="38" t="s">
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="30"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+    <row r="29" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="71" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37" t="n">
+      <c r="J29" s="11"/>
+      <c r="K29" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36" t="s">
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="S29" s="36" t="s">
+      <c r="S29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="36" t="s">
+      <c r="T29" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U29" s="36"/>
-      <c r="V29" s="77" t="s">
+      <c r="U29" s="11"/>
+      <c r="V29" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="W29" s="36"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="36" t="s">
+      <c r="W29" s="11"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z29" s="36" t="s">
+      <c r="Z29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="36" t="s">
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF29" s="36" t="s">
+      <c r="AF29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG29" s="74" t="n">
+      <c r="AG29" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="70" t="n">
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN29" s="27" t="n">
+      <c r="AN29" s="13" t="n">
         <v>28</v>
       </c>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38" t="s">
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="30"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+    <row r="30" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="71" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="37" t="n">
+      <c r="J30" s="11"/>
+      <c r="K30" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="36" t="s">
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z30" s="36" t="s">
+      <c r="Z30" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="36" t="s">
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF30" s="36" t="s">
+      <c r="AF30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG30" s="74" t="n">
+      <c r="AG30" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="70" t="n">
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN30" s="27" t="n">
+      <c r="AN30" s="13" t="n">
         <v>29</v>
       </c>
-      <c r="AO30" s="75" t="s">
+      <c r="AO30" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="30" t="s">
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
+    <row r="31" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="71" t="s">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="37" t="n">
+      <c r="J31" s="11"/>
+      <c r="K31" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="36" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36" t="s">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36" t="s">
+      <c r="R31" s="11"/>
+      <c r="S31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T31" s="36" t="s">
+      <c r="T31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="36" t="s">
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z31" s="36" t="s">
+      <c r="Z31" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="36" t="s">
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF31" s="36" t="s">
+      <c r="AF31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG31" s="74" t="n">
+      <c r="AG31" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="70" t="n">
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN31" s="27" t="n">
+      <c r="AN31" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="71" t="s">
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="30"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="16"/>
     </row>
-    <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="n">
+    <row r="32" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="71" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="37" t="n">
+      <c r="J32" s="11"/>
+      <c r="K32" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="79" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="O32" s="79" t="s">
+      <c r="O32" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36" t="s">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36" t="s">
+      <c r="R32" s="11"/>
+      <c r="S32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="77" t="s">
+      <c r="T32" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="36" t="s">
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z32" s="36" t="s">
+      <c r="Z32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="36" t="s">
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF32" s="36" t="s">
+      <c r="AF32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG32" s="74" t="n">
+      <c r="AG32" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="70" t="n">
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN32" s="27" t="n">
+      <c r="AN32" s="13" t="n">
         <v>31</v>
       </c>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="71" t="s">
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="30"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="16"/>
     </row>
-    <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="n">
+    <row r="33" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="81" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="37" t="n">
+      <c r="J33" s="11"/>
+      <c r="K33" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="79" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="O33" s="36" t="s">
+      <c r="O33" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="P33" s="36" t="s">
+      <c r="P33" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36" t="s">
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="S33" s="36" t="s">
+      <c r="S33" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="36" t="s">
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Z33" s="36" t="s">
+      <c r="Z33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36" t="s">
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF33" s="36" t="s">
+      <c r="AF33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG33" s="74" t="n">
+      <c r="AG33" s="25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="70" t="n">
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN33" s="27" t="n">
+      <c r="AN33" s="13" t="n">
         <v>32</v>
       </c>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="30" t="s">
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="n">
+    <row r="34" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="71" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="71" t="s">
+      <c r="H34" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77" t="n">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="36" t="s">
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF34" s="36" t="s">
+      <c r="AF34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG34" s="74" t="n">
+      <c r="AG34" s="25" t="n">
         <v>0.2</v>
       </c>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="70" t="n">
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="AN34" s="27" t="n">
+      <c r="AN34" s="13" t="n">
         <v>33</v>
       </c>
-      <c r="AO34" s="75" t="s">
+      <c r="AO34" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="AP34" s="0"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="30"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="n">
+    <row r="35" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="71" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="27" t="s">
         <v>171</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J35" s="0"/>
-      <c r="K35" s="82" t="n">
+      <c r="K35" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="36" t="s">
+      <c r="T35" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36" t="s">
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="83" t="s">
+      <c r="Z35" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="36" t="s">
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF35" s="36" t="s">
+      <c r="AF35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG35" s="74" t="n">
+      <c r="AG35" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="70" t="n">
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN35" s="27" t="n">
+      <c r="AN35" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="71" t="s">
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="30"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="16"/>
     </row>
-    <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="n">
+    <row r="36" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="71" t="s">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="H36" s="76" t="s">
+      <c r="H36" s="27" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J36" s="0"/>
-      <c r="K36" s="37" t="n">
+      <c r="K36" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="36" t="s">
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O36" s="36" t="s">
+      <c r="O36" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36" t="s">
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T36" s="17" t="s">
+      <c r="T36" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36" t="s">
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="36" t="s">
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF36" s="36" t="s">
+      <c r="AF36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG36" s="74" t="n">
+      <c r="AG36" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="84" t="s">
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
-      <c r="AM36" s="70" t="n">
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN36" s="27" t="n">
+      <c r="AN36" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="71" t="s">
+      <c r="AO36" s="13"/>
+      <c r="AP36" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="30"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="16"/>
     </row>
-    <row r="37" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="n">
+    <row r="37" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="71" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="76" t="s">
+      <c r="H37" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37" t="n">
+      <c r="J37" s="11"/>
+      <c r="K37" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="36" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O37" s="36" t="s">
+      <c r="O37" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36" t="s">
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T37" s="17" t="s">
+      <c r="T37" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36" t="s">
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="36" t="s">
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AF37" s="36" t="s">
+      <c r="AF37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG37" s="74" t="n">
+      <c r="AG37" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="84" t="s">
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="70" t="n">
+      <c r="AK37" s="13"/>
+      <c r="AL37" s="13"/>
+      <c r="AM37" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN37" s="27" t="n">
+      <c r="AN37" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="71" t="s">
+      <c r="AO37" s="13"/>
+      <c r="AP37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AQ37" s="38"/>
-      <c r="AR37" s="30"/>
+      <c r="AQ37" s="13"/>
+      <c r="AR37" s="16"/>
     </row>
-    <row r="38" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="n">
+    <row r="38" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="39" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="85" t="s">
+      <c r="I38" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="85"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82" t="n">
+      <c r="J38" s="31"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="M38" s="86" t="n">
+      <c r="M38" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="N38" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="O38" s="36" t="s">
+      <c r="O38" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="36" t="s">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T38" s="37" t="s">
+      <c r="T38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="36" t="s">
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37" t="s">
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AF38" s="36" t="s">
+      <c r="AF38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AG38" s="74" t="n">
+      <c r="AG38" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="70" t="n">
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="AN38" s="27" t="n">
+      <c r="AN38" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="AO38" s="38"/>
-      <c r="AP38" s="71" t="s">
+      <c r="AO38" s="13"/>
+      <c r="AP38" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="30"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="n">
+    <row r="39" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="I39" s="91" t="s">
+      <c r="I39" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="92" t="s">
+      <c r="J39" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="92"/>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="92"/>
-      <c r="AD39" s="92"/>
-      <c r="AE39" s="92"/>
-      <c r="AF39" s="94" t="n">
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG39" s="92"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="95"/>
-      <c r="AM39" s="96"/>
-      <c r="AN39" s="27" t="n">
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="AO39" s="92" t="n">
+      <c r="AO39" s="33" t="n">
         <v>33</v>
       </c>
-      <c r="AP39" s="92"/>
-      <c r="AQ39" s="92"/>
-      <c r="AR39" s="0"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
     </row>
-    <row r="40" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="n">
+    <row r="40" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="E40" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="G40" s="89" t="s">
+      <c r="G40" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="90" t="s">
+      <c r="H40" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="97" t="s">
+      <c r="I40" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J40" s="93" t="s">
+      <c r="J40" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93" t="s">
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92" t="s">
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="94"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="92"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="92"/>
-      <c r="AK40" s="92"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="96"/>
-      <c r="AN40" s="27" t="n">
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="33"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="13"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="AO40" s="92" t="n">
+      <c r="AO40" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="AP40" s="92"/>
-      <c r="AQ40" s="92"/>
-      <c r="AR40" s="0"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
     </row>
-    <row r="41" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="n">
+    <row r="41" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G41" s="89" t="s">
+      <c r="G41" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="90" t="s">
+      <c r="H41" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="97" t="s">
+      <c r="I41" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J41" s="93" t="s">
+      <c r="J41" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93" t="s">
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92" t="s">
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="92"/>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="92"/>
-      <c r="AD41" s="92"/>
-      <c r="AE41" s="92"/>
-      <c r="AF41" s="94" t="n">
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG41" s="92"/>
-      <c r="AH41" s="92"/>
-      <c r="AI41" s="92"/>
-      <c r="AJ41" s="92"/>
-      <c r="AK41" s="92"/>
-      <c r="AL41" s="95"/>
-      <c r="AM41" s="96"/>
-      <c r="AN41" s="27" t="n">
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="13"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="AO41" s="92" t="n">
+      <c r="AO41" s="33" t="n">
         <v>19</v>
       </c>
-      <c r="AP41" s="92"/>
-      <c r="AQ41" s="92"/>
-      <c r="AR41" s="0"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
     </row>
-    <row r="42" customFormat="false" ht="47.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="n">
+    <row r="42" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="89" t="s">
+      <c r="G42" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="90" t="s">
+      <c r="H42" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="97" t="s">
+      <c r="I42" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J42" s="93" t="s">
+      <c r="J42" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93" t="s">
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92" t="s">
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="92"/>
-      <c r="AB42" s="92"/>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="92"/>
-      <c r="AE42" s="92"/>
-      <c r="AF42" s="94" t="n">
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="33"/>
+      <c r="AE42" s="33"/>
+      <c r="AF42" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="92"/>
-      <c r="AH42" s="92"/>
-      <c r="AI42" s="92"/>
-      <c r="AJ42" s="92"/>
-      <c r="AK42" s="92"/>
-      <c r="AL42" s="95"/>
-      <c r="AM42" s="96"/>
-      <c r="AN42" s="27" t="n">
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="AO42" s="92" t="n">
+      <c r="AO42" s="33" t="n">
         <v>23</v>
       </c>
-      <c r="AP42" s="92"/>
-      <c r="AQ42" s="92"/>
-      <c r="AR42" s="0"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
     </row>
-    <row r="43" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="n">
+    <row r="43" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G43" s="89" t="s">
+      <c r="G43" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="90" t="s">
+      <c r="H43" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="97" t="s">
+      <c r="I43" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J43" s="93" t="s">
+      <c r="J43" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93" t="s">
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="92"/>
-      <c r="AB43" s="92"/>
-      <c r="AC43" s="92"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="92"/>
-      <c r="AF43" s="94" t="n">
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="92"/>
-      <c r="AH43" s="92"/>
-      <c r="AI43" s="92"/>
-      <c r="AJ43" s="92"/>
-      <c r="AK43" s="92"/>
-      <c r="AL43" s="98"/>
-      <c r="AM43" s="96"/>
-      <c r="AN43" s="27" t="n">
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="AO43" s="92" t="n">
+      <c r="AO43" s="33" t="n">
         <v>26</v>
       </c>
-      <c r="AP43" s="92"/>
-      <c r="AQ43" s="92"/>
-      <c r="AR43" s="0"/>
+      <c r="AP43" s="33"/>
+      <c r="AQ43" s="33"/>
     </row>
-    <row r="44" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="n">
+    <row r="44" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="89" t="s">
+      <c r="G44" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="90" t="s">
+      <c r="H44" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="97" t="s">
+      <c r="I44" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J44" s="93" t="s">
+      <c r="J44" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93" t="s">
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92" t="s">
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="92"/>
-      <c r="AD44" s="92"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="94" t="n">
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="33"/>
+      <c r="AE44" s="33"/>
+      <c r="AF44" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="92"/>
-      <c r="AH44" s="92"/>
-      <c r="AI44" s="92"/>
-      <c r="AJ44" s="92"/>
-      <c r="AK44" s="92"/>
-      <c r="AL44" s="98"/>
-      <c r="AM44" s="96"/>
-      <c r="AN44" s="27" t="n">
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="33"/>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="33"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="33"/>
+      <c r="AN44" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="AO44" s="92" t="n">
+      <c r="AO44" s="33" t="n">
         <v>29</v>
       </c>
-      <c r="AP44" s="92"/>
-      <c r="AQ44" s="92"/>
-      <c r="AR44" s="0"/>
+      <c r="AP44" s="33"/>
+      <c r="AQ44" s="33"/>
     </row>
-    <row r="45" customFormat="false" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="n">
+    <row r="45" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="89" t="s">
+      <c r="G45" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="90" t="s">
+      <c r="H45" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="I45" s="97" t="s">
+      <c r="I45" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="93" t="s">
+      <c r="J45" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93" t="s">
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="94" t="n">
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="98"/>
-      <c r="AM45" s="96"/>
-      <c r="AN45" s="27" t="n">
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="33"/>
+      <c r="AL45" s="35"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="92" t="n">
+      <c r="AO45" s="33" t="n">
         <v>32</v>
       </c>
-      <c r="AP45" s="92"/>
-      <c r="AQ45" s="92"/>
-      <c r="AR45" s="0"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AR38"/>
@@ -5642,52 +5271,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="100" t="s">
+      <c r="M1" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="HoReCa Cofee_Tea Shops" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="215">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -608,10 +612,10 @@
     <t xml:space="preserve">Relax после работы: Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002</t>
+    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10108, A5B10112, A5B10111</t>
   </si>
   <si>
     <t xml:space="preserve">Midday socializing: Moctails</t>
@@ -620,7 +624,10 @@
     <t xml:space="preserve">Relax после работы: Моктели</t>
   </si>
   <si>
-    <t xml:space="preserve">new</t>
+    <t xml:space="preserve">Mocktails_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10109</t>
   </si>
   <si>
     <t xml:space="preserve">Eat Out: Informal lunch</t>
@@ -860,10 +867,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -891,8 +899,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -933,7 +941,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,11 +967,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1048,7 +1059,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1080,7 +1091,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1121,14 +1140,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1141,7 +1161,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1166,7 +1186,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1204,9 +1224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1236240</xdr:colOff>
+      <xdr:colOff>1234800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1216,7 +1236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14438520" cy="8254080"/>
+          <a:ext cx="16148880" cy="8252640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,9 +1269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1236240</xdr:colOff>
+      <xdr:colOff>1234800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1261,7 +1281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14438520" cy="8254080"/>
+          <a:ext cx="16148880" cy="8252640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,9 +1314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1236240</xdr:colOff>
+      <xdr:colOff>1234800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1306,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14438520" cy="8254080"/>
+          <a:ext cx="16148880" cy="8252640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,9 +1359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1236240</xdr:colOff>
+      <xdr:colOff>1234800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1351,7 +1371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="14438520" cy="8254080"/>
+          <a:ext cx="16148880" cy="8252640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,19 +1406,19 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="R33" activeCellId="0" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.9720930232558"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="40.3302325581395"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="15.9720930232558"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.9720930232558"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="15.9720930232558"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.4093023255814"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.9674418604651"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3353,6 +3373,7 @@
       <c r="I23" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="11" t="n">
         <v>2</v>
       </c>
@@ -4062,10 +4083,10 @@
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="O31" s="29" t="s">
+      <c r="O31" s="30" t="s">
         <v>158</v>
       </c>
       <c r="P31" s="11"/>
@@ -4076,7 +4097,7 @@
       <c r="S31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="31" t="s">
         <v>56</v>
       </c>
       <c r="U31" s="11"/>
@@ -4152,11 +4173,11 @@
       </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="O32" s="11" t="s">
-        <v>161</v>
+      <c r="O32" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11" t="s">
@@ -4166,8 +4187,8 @@
       <c r="S32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T32" s="11" t="s">
-        <v>114</v>
+      <c r="T32" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
@@ -4228,10 +4249,10 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>54</v>
@@ -4253,7 +4274,7 @@
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>55</v>
@@ -4316,14 +4337,14 @@
         <v>85</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>107</v>
@@ -4346,7 +4367,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -4374,8 +4395,9 @@
         <v>33</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AP34" s="0"/>
       <c r="AQ34" s="13"/>
       <c r="AR34" s="16"/>
     </row>
@@ -4393,18 +4415,19 @@
         <v>85</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J35" s="0"/>
       <c r="K35" s="15" t="n">
         <v>1</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>55</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
@@ -4428,8 +4451,8 @@
       <c r="Y35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="30" t="s">
-        <v>174</v>
+      <c r="Z35" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
@@ -4457,7 +4480,7 @@
       </c>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ35" s="13"/>
       <c r="AR35" s="16"/>
@@ -4476,18 +4499,19 @@
         <v>85</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="J36" s="0"/>
       <c r="K36" s="13" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4521,7 @@
         <v>112</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -4506,14 +4530,14 @@
         <v>55</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -4532,7 +4556,7 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
@@ -4544,7 +4568,7 @@
       </c>
       <c r="AO36" s="13"/>
       <c r="AP36" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ36" s="13"/>
       <c r="AR36" s="16"/>
@@ -4563,17 +4587,17 @@
         <v>85</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="13" t="n">
@@ -4585,7 +4609,7 @@
         <v>112</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -4594,14 +4618,14 @@
         <v>55</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -4620,7 +4644,7 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
@@ -4632,7 +4656,7 @@
       </c>
       <c r="AO37" s="13"/>
       <c r="AP37" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ37" s="13"/>
       <c r="AR37" s="16"/>
@@ -4653,15 +4677,15 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I38" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="J38" s="31"/>
+      <c r="I38" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="33"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="n">
         <v>1</v>
@@ -4673,7 +4697,7 @@
         <v>112</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -4689,7 +4713,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
@@ -4718,7 +4742,7 @@
       </c>
       <c r="AO38" s="13"/>
       <c r="AP38" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AQ38" s="13"/>
       <c r="AR38" s="16"/>
@@ -4734,67 +4758,67 @@
         <v>44</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="F39" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="G39" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="H39" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="I39" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="J39" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="34" t="n">
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
       <c r="AL39" s="13"/>
-      <c r="AM39" s="33"/>
+      <c r="AM39" s="35"/>
       <c r="AN39" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="AO39" s="33" t="n">
+      <c r="AO39" s="35" t="n">
         <v>33</v>
       </c>
-      <c r="AP39" s="33"/>
-      <c r="AQ39" s="33"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="n">
@@ -4807,67 +4831,67 @@
         <v>44</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="32" t="s">
+      <c r="F40" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>98</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
+        <v>201</v>
+      </c>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
       <c r="AL40" s="13"/>
-      <c r="AM40" s="33"/>
+      <c r="AM40" s="35"/>
       <c r="AN40" s="13" t="n">
         <v>39</v>
       </c>
-      <c r="AO40" s="33" t="n">
+      <c r="AO40" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="AP40" s="33"/>
-      <c r="AQ40" s="33"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="n">
@@ -4880,69 +4904,69 @@
         <v>44</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G41" s="32" t="s">
+      <c r="F41" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>105</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="34" t="n">
+        <v>204</v>
+      </c>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="33"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
       <c r="AL41" s="13"/>
-      <c r="AM41" s="33"/>
+      <c r="AM41" s="35"/>
       <c r="AN41" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="AO41" s="33" t="n">
+      <c r="AO41" s="35" t="n">
         <v>19</v>
       </c>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
@@ -4955,69 +4979,69 @@
         <v>44</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="32" t="s">
+      <c r="F42" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="G42" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>128</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="34" t="n">
+        <v>205</v>
+      </c>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
       <c r="AL42" s="13"/>
-      <c r="AM42" s="33"/>
+      <c r="AM42" s="35"/>
       <c r="AN42" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="AO42" s="33" t="n">
+      <c r="AO42" s="35" t="n">
         <v>23</v>
       </c>
-      <c r="AP42" s="33"/>
-      <c r="AQ42" s="33"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
@@ -5030,69 +5054,69 @@
         <v>44</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="32" t="s">
+      <c r="F43" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="G43" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="34" t="n">
+        <v>208</v>
+      </c>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="33"/>
-      <c r="AJ43" s="33"/>
-      <c r="AK43" s="33"/>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="33"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="37"/>
+      <c r="AM43" s="35"/>
       <c r="AN43" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="AO43" s="33" t="n">
+      <c r="AO43" s="35" t="n">
         <v>26</v>
       </c>
-      <c r="AP43" s="33"/>
-      <c r="AQ43" s="33"/>
+      <c r="AP43" s="35"/>
+      <c r="AQ43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="n">
@@ -5105,69 +5129,69 @@
         <v>44</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G44" s="32" t="s">
+      <c r="F44" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="G44" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="34" t="n">
+        <v>209</v>
+      </c>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="33"/>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="33"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="35"/>
       <c r="AN44" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="AO44" s="33" t="n">
+      <c r="AO44" s="35" t="n">
         <v>29</v>
       </c>
-      <c r="AP44" s="33"/>
-      <c r="AQ44" s="33"/>
+      <c r="AP44" s="35"/>
+      <c r="AQ44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="n">
@@ -5180,69 +5204,69 @@
         <v>44</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="32" t="s">
+      <c r="F45" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H45" s="33" t="s">
-        <v>162</v>
+      <c r="G45" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="34" t="n">
+        <v>210</v>
+      </c>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" s="33"/>
-      <c r="AH45" s="33"/>
-      <c r="AI45" s="33"/>
-      <c r="AJ45" s="33"/>
-      <c r="AK45" s="33"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="33"/>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35"/>
+      <c r="AJ45" s="35"/>
+      <c r="AK45" s="35"/>
+      <c r="AL45" s="37"/>
+      <c r="AM45" s="35"/>
       <c r="AN45" s="13" t="n">
         <v>44</v>
       </c>
-      <c r="AO45" s="33" t="n">
+      <c r="AO45" s="35" t="n">
         <v>32</v>
       </c>
-      <c r="AP45" s="33"/>
-      <c r="AQ45" s="33"/>
+      <c r="AP45" s="35"/>
+      <c r="AQ45" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AR38"/>
@@ -5271,53 +5295,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="38" t="s">
-        <v>213</v>
+      <c r="B4" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -44,6 +44,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -125,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -612,10 +614,10 @@
     <t xml:space="preserve">Relax после работы: Миксабилити</t>
   </si>
   <si>
-    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10108, A5B10112, A5B10111</t>
+    <t xml:space="preserve">RED Hackle mix_img (2), Finlandia and Rich Cherry, Finlandia and Rich menu insert, Finlandia and Rich Mix, Finlandia and Rich Orange, Finlandia and Rich table tent, Finlandia and Schweppes Menu Insert, Finlandia and Schweppes Table Tent, Finlandia and Schweppes, Jack and Coke Menu, Jack and Coke Table tent, Jack Daniles and Coke Mix, Jack Daniles and Coke, Finlandia and Rich Sticker Cherry, Finlandia and Rich Sticker Orange, Finlandia and Rich table tent Cherry, CC_FWC_Cocktail_WRK-01, CC_FWC_Cocktail_WRK-02, CC_FWC_Cocktail_WRK-03, CC_FWC_Cocktail_WRK-04, Cocktails_2018, Schweppes_Magnit_2, Schweppes_Magnit_1 , Schweppes_Tabletent, Schweppes_Menu_2, Schweppes_Menu_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5B10100, A5B10101, 7777888899, 7777888900, 7777888901, 7777888902, 7777888903, 7777888904, 7777888905, 7777888906, 7777888907, 7777888908, 7777888909, 7777888910, 7777889000, 7777889001, 7777889002, A5B10105, A5B10106, A5B10107, A5B10109, A5B10112, A5B10111, A5B10108, A5B10115, A5B10113, A5B10114</t>
   </si>
   <si>
     <t xml:space="preserve">Midday socializing: Moctails</t>
@@ -627,7 +629,7 @@
     <t xml:space="preserve">Mocktails_2018</t>
   </si>
   <si>
-    <t xml:space="preserve">A5B10109</t>
+    <t xml:space="preserve">A5B10110</t>
   </si>
   <si>
     <t xml:space="preserve">Eat Out: Informal lunch</t>
@@ -941,7 +943,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,9 +967,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1091,15 +1090,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,15 +1139,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1224,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1236,7 +1234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,9 +1267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1281,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,9 +1312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,7 +1324,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,9 +1357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234800</xdr:colOff>
+      <xdr:colOff>1234080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1371,7 +1369,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="16148880" cy="8252640"/>
+          <a:ext cx="17024400" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,19 +1404,19 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="R33" activeCellId="0" sqref="R33"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.4093023255814"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.1162790697674"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="18.953488372093"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4180,9 +4178,7 @@
         <v>162</v>
       </c>
       <c r="P32" s="11"/>
-      <c r="Q32" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11" t="s">
         <v>55</v>
@@ -5295,7 +5291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.8883720930233"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
+++ b/Projects/CCRU/Data/HoReCa Cofee_Tea Shops PoS 2018.xlsx
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'HoReCa Cofee_Tea Shops'!$B$1:$AR$38</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="216">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -421,6 +422,9 @@
   </si>
   <si>
     <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">New Alco Brand</t>
@@ -1222,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1234,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,9 +1271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1279,7 +1283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1312,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,7 +1328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1357,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1234080</xdr:colOff>
+      <xdr:colOff>1233720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1369,7 +1373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="459000" y="0"/>
-          <a:ext cx="17024400" cy="8251920"/>
+          <a:ext cx="17538480" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,19 +1408,19 @@
   </sheetPr>
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="48.1162790697674"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="49.5953488372093"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="19.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="35.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2852,7 +2856,9 @@
         <v>4607174573314</v>
       </c>
       <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="Q17" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="R17" s="24"/>
       <c r="S17" s="11" t="s">
         <v>55</v>
@@ -2919,10 +2925,10 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>54</v>
@@ -2934,7 +2940,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" s="24" t="n">
         <v>4607174573338</v>
@@ -3003,14 +3009,14 @@
         <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>54</v>
@@ -3022,10 +3028,10 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -3041,10 +3047,10 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z19" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -3093,17 +3099,17 @@
         <v>45</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="n">
@@ -3125,10 +3131,10 @@
       <c r="W20" s="11"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="11"/>
@@ -3155,7 +3161,7 @@
         <v>19</v>
       </c>
       <c r="AO20" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AP20" s="13"/>
       <c r="AQ20" s="13"/>
@@ -3177,14 +3183,14 @@
         <v>45</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>54</v>
@@ -3196,13 +3202,13 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
       <c r="N21" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -3210,19 +3216,19 @@
         <v>55</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
@@ -3250,7 +3256,7 @@
       </c>
       <c r="AO21" s="13"/>
       <c r="AP21" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ21" s="13"/>
       <c r="AR21" s="16"/>
@@ -3269,14 +3275,14 @@
         <v>45</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>54</v>
@@ -3289,30 +3295,30 @@
       <c r="M22" s="13"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U22" s="11"/>
       <c r="V22" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
@@ -3340,7 +3346,7 @@
       </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ22" s="13"/>
       <c r="AR22" s="16"/>
@@ -3359,17 +3365,17 @@
         <v>45</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="11" t="n">
@@ -3378,33 +3384,33 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
@@ -3432,7 +3438,7 @@
       </c>
       <c r="AO23" s="13"/>
       <c r="AP23" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ23" s="13"/>
       <c r="AR23" s="16"/>
@@ -3451,17 +3457,17 @@
         <v>45</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="13" t="n">
@@ -3483,10 +3489,10 @@
       <c r="W24" s="11"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
@@ -3513,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="AO24" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="13"/>
@@ -3535,14 +3541,14 @@
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>54</v>
@@ -3555,10 +3561,10 @@
       <c r="M25" s="13"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -3566,17 +3572,17 @@
         <v>55</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
@@ -3604,7 +3610,7 @@
       </c>
       <c r="AO25" s="13"/>
       <c r="AP25" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="16"/>
@@ -3623,14 +3629,14 @@
         <v>45</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>54</v>
@@ -3643,30 +3649,30 @@
       <c r="M26" s="13"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W26" s="11"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
@@ -3694,7 +3700,7 @@
       </c>
       <c r="AO26" s="13"/>
       <c r="AP26" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AQ26" s="13"/>
       <c r="AR26" s="16"/>
@@ -3713,17 +3719,17 @@
         <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="13" t="n">
@@ -3745,10 +3751,10 @@
       <c r="W27" s="11"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
@@ -3775,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="AO27" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
@@ -3797,14 +3803,14 @@
         <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>54</v>
@@ -3816,33 +3822,33 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
@@ -3870,7 +3876,7 @@
       </c>
       <c r="AO28" s="13"/>
       <c r="AP28" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ28" s="13"/>
       <c r="AR28" s="16"/>
@@ -3889,14 +3895,14 @@
         <v>45</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>54</v>
@@ -3910,11 +3916,11 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>55</v>
@@ -3924,15 +3930,15 @@
       </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
@@ -3960,7 +3966,7 @@
       </c>
       <c r="AO29" s="13"/>
       <c r="AP29" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ29" s="13"/>
       <c r="AR29" s="16"/>
@@ -3979,17 +3985,17 @@
         <v>45</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="13" t="n">
@@ -4011,10 +4017,10 @@
       <c r="W30" s="11"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
@@ -4041,7 +4047,7 @@
         <v>29</v>
       </c>
       <c r="AO30" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP30" s="13"/>
       <c r="AQ30" s="13"/>
@@ -4063,14 +4069,14 @@
         <v>45</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>54</v>
@@ -4082,14 +4088,14 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O31" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R31" s="11"/>
       <c r="S31" s="11" t="s">
@@ -4103,10 +4109,10 @@
       <c r="W31" s="11"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
@@ -4134,7 +4140,7 @@
       </c>
       <c r="AO31" s="13"/>
       <c r="AP31" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AQ31" s="13"/>
       <c r="AR31" s="16"/>
@@ -4153,14 +4159,14 @@
         <v>45</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>54</v>
@@ -4172,10 +4178,10 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O32" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -4191,10 +4197,10 @@
       <c r="W32" s="11"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
@@ -4222,7 +4228,7 @@
       </c>
       <c r="AO32" s="13"/>
       <c r="AP32" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AQ32" s="13"/>
       <c r="AR32" s="16"/>
@@ -4241,14 +4247,14 @@
         <v>45</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>54</v>
@@ -4260,33 +4266,33 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
@@ -4333,17 +4339,17 @@
         <v>85</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="n">
@@ -4363,7 +4369,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
@@ -4391,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="AO34" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AP34" s="0"/>
       <c r="AQ34" s="13"/>
@@ -4411,17 +4417,17 @@
         <v>85</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="15" t="n">
@@ -4438,7 +4444,7 @@
         <v>55</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
@@ -4448,7 +4454,7 @@
         <v>57</v>
       </c>
       <c r="Z35" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
@@ -4476,7 +4482,7 @@
       </c>
       <c r="AO35" s="13"/>
       <c r="AP35" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ35" s="13"/>
       <c r="AR35" s="16"/>
@@ -4495,17 +4501,17 @@
         <v>85</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="13" t="n">
@@ -4514,10 +4520,10 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -4526,14 +4532,14 @@
         <v>55</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
@@ -4552,7 +4558,7 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
@@ -4564,7 +4570,7 @@
       </c>
       <c r="AO36" s="13"/>
       <c r="AP36" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ36" s="13"/>
       <c r="AR36" s="16"/>
@@ -4583,17 +4589,17 @@
         <v>85</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="13" t="n">
@@ -4602,10 +4608,10 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -4614,14 +4620,14 @@
         <v>55</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -4640,7 +4646,7 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK37" s="13"/>
       <c r="AL37" s="13"/>
@@ -4652,7 +4658,7 @@
       </c>
       <c r="AO37" s="13"/>
       <c r="AP37" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ37" s="13"/>
       <c r="AR37" s="16"/>
@@ -4673,13 +4679,13 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="15"/>
@@ -4690,10 +4696,10 @@
         <v>14</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
@@ -4709,7 +4715,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
@@ -4738,7 +4744,7 @@
       </c>
       <c r="AO38" s="13"/>
       <c r="AP38" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ38" s="13"/>
       <c r="AR38" s="16"/>
@@ -4754,25 +4760,25 @@
         <v>44</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
@@ -4784,7 +4790,7 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
       <c r="T39" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
@@ -4827,39 +4833,39 @@
         <v>44</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
       <c r="T40" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
@@ -4900,39 +4906,39 @@
         <v>44</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
       <c r="T41" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U41" s="35"/>
       <c r="V41" s="35"/>
@@ -4975,39 +4981,39 @@
         <v>44</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
       <c r="T42" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
@@ -5050,39 +5056,39 @@
         <v>44</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
       <c r="T43" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
@@ -5125,39 +5131,39 @@
         <v>44</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
       <c r="T44" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U44" s="35"/>
       <c r="V44" s="35"/>
@@ -5200,39 +5206,39 @@
         <v>44</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
       <c r="T45" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
@@ -5291,7 +5297,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.2604651162791"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,10 +5320,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="39" t="s">
         <v>34</v>
@@ -5326,7 +5332,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L1" s="39" t="s">
         <v>35</v>
@@ -5337,7 +5343,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
